--- a/导随/导随宏.xlsx
+++ b/导随/导随宏.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blog\导随\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DE48D8-3A7B-4D83-9160-C9BAA6A60951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FFAA8E-F071-4420-B0B7-91A42A50EAE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-3000" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2093,14 +2093,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="101.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="104.25" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
